--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>نام</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>نوع</t>
+  </si>
+  <si>
+    <t>نوشیدنی</t>
+  </si>
+  <si>
+    <t>چای</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,6 +389,59 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>نام</t>
   </si>
@@ -42,16 +42,93 @@
   </si>
   <si>
     <t>چای</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/tea.jpg</t>
+  </si>
+  <si>
+    <t>نوشابه فانتا</t>
+  </si>
+  <si>
+    <t>نوشابه کوکاکولا</t>
+  </si>
+  <si>
+    <t>ماالشعیر</t>
+  </si>
+  <si>
+    <t>باواریا</t>
+  </si>
+  <si>
+    <t>آب معدنی</t>
+  </si>
+  <si>
+    <t>قهوه</t>
+  </si>
+  <si>
+    <t>کاپوچینو</t>
+  </si>
+  <si>
+    <t>موهیتو</t>
+  </si>
+  <si>
+    <t>دوغ</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/doogh.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/mojito.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/water.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/bavaria.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/cocacola.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/coffee.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/capoccino.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/fanta.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/delster.jpg</t>
+  </si>
+  <si>
+    <t>شیرقهوه</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/coffeemilk.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/chocolatemilk.jpg</t>
+  </si>
+  <si>
+    <t>شیرکاکائو</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,16 +151,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,17 +442,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="91.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -396,53 +476,183 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>7000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>4000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>4000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId9"/>
+    <hyperlink ref="D5" r:id="rId10"/>
+    <hyperlink ref="D12:D13" r:id="rId11" display="https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/doogh.jpg"/>
+    <hyperlink ref="D12" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>نام</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>شیرکاکائو</t>
+  </si>
+  <si>
+    <t>غذا</t>
   </si>
 </sst>
 </file>
@@ -442,9 +445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -635,6 +638,101 @@
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>نام</t>
   </si>
@@ -114,6 +114,141 @@
   </si>
   <si>
     <t>غذا</t>
+  </si>
+  <si>
+    <t>آش</t>
+  </si>
+  <si>
+    <t>خورشت قیمه</t>
+  </si>
+  <si>
+    <t>خورشت قرمه سبزی</t>
+  </si>
+  <si>
+    <t>همبرگر</t>
+  </si>
+  <si>
+    <t>جوجه کباب</t>
+  </si>
+  <si>
+    <t>کباب کوبیده</t>
+  </si>
+  <si>
+    <t>کوکو سیب زمینی</t>
+  </si>
+  <si>
+    <t>کوکو سبزی</t>
+  </si>
+  <si>
+    <t>ماهی</t>
+  </si>
+  <si>
+    <t>ماکارونی</t>
+  </si>
+  <si>
+    <t>نیمرو</t>
+  </si>
+  <si>
+    <t>الویه</t>
+  </si>
+  <si>
+    <t>املت</t>
+  </si>
+  <si>
+    <t>پاستا</t>
+  </si>
+  <si>
+    <t>ساندویچ فلافل</t>
+  </si>
+  <si>
+    <t>ساندویج کالباس</t>
+  </si>
+  <si>
+    <t>ساندویچ مرغ</t>
+  </si>
+  <si>
+    <t>سیب زمینی</t>
+  </si>
+  <si>
+    <t>سوپ</t>
+  </si>
+  <si>
+    <t>سوسیس تخم مرغ</t>
+  </si>
+  <si>
+    <t>زرشک پلو با مرغ</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/ash.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/gheyme.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/ghorme.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/hamburger.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/jooje.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/koobide.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/kookoosabzi.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/kookoosibzamini.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/mahi.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/makaroni.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/nimroo.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/olovie.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/omlet.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/pasta.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/sandwichefelafel.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/sandwichekalbas.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/sandwichemorgh.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/sibzamini.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/soop.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/soosisTokhmemorgh.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/zereshkpolobamorgh.jpg</t>
+  </si>
+  <si>
+    <t>پیتزا مخلوط</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/ghaza/pizza.jpg</t>
+  </si>
+  <si>
+    <t>تنقلات</t>
   </si>
 </sst>
 </file>
@@ -445,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,95 +779,438 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>12000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>19000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>19000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>25000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>25000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>30000</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>12000</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>12000</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>25000</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>19000</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>14000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>12000</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>30000</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>17000</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>22000</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>25000</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <v>15000</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>25000</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>30000</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -750,6 +1228,28 @@
     <hyperlink ref="D12:D13" r:id="rId11" display="https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/Nooshidani/doogh.jpg"/>
     <hyperlink ref="D12" r:id="rId12"/>
     <hyperlink ref="D13" r:id="rId13"/>
+    <hyperlink ref="D14" r:id="rId14"/>
+    <hyperlink ref="D15" r:id="rId15"/>
+    <hyperlink ref="D16" r:id="rId16"/>
+    <hyperlink ref="D17" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D20" r:id="rId20"/>
+    <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="D22" r:id="rId22"/>
+    <hyperlink ref="D23" r:id="rId23"/>
+    <hyperlink ref="D24" r:id="rId24"/>
+    <hyperlink ref="D25" r:id="rId25"/>
+    <hyperlink ref="D26" r:id="rId26"/>
+    <hyperlink ref="D27" r:id="rId27"/>
+    <hyperlink ref="D28" r:id="rId28"/>
+    <hyperlink ref="D29" r:id="rId29"/>
+    <hyperlink ref="D30" r:id="rId30"/>
+    <hyperlink ref="D31" r:id="rId31"/>
+    <hyperlink ref="D32" r:id="rId32"/>
+    <hyperlink ref="D33" r:id="rId33"/>
+    <hyperlink ref="D34" r:id="rId34"/>
+    <hyperlink ref="D35" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
   <si>
     <t>نام</t>
   </si>
@@ -249,6 +249,126 @@
   </si>
   <si>
     <t>تنقلات</t>
+  </si>
+  <si>
+    <t>آدامس نعنایی</t>
+  </si>
+  <si>
+    <t>آلوچه</t>
+  </si>
+  <si>
+    <t>بادام زمینی</t>
+  </si>
+  <si>
+    <t>پاستیل ببتو</t>
+  </si>
+  <si>
+    <t>چیپس ساده</t>
+  </si>
+  <si>
+    <t>چوب شور</t>
+  </si>
+  <si>
+    <t>کیک درنا</t>
+  </si>
+  <si>
+    <t>بیسکوییت های بای</t>
+  </si>
+  <si>
+    <t>شکلات  کیت کت</t>
+  </si>
+  <si>
+    <t>لواشک</t>
+  </si>
+  <si>
+    <t>شکلات مارس</t>
+  </si>
+  <si>
+    <t>بیسکوییت کرمدار</t>
+  </si>
+  <si>
+    <t>کروسان شکلاتی</t>
+  </si>
+  <si>
+    <t>پفک</t>
+  </si>
+  <si>
+    <t>پاپ کورن</t>
+  </si>
+  <si>
+    <t>بیسکوییت ساقه طلایی</t>
+  </si>
+  <si>
+    <t>کیک شکلاتی</t>
+  </si>
+  <si>
+    <t>شکلات اسنیکرز</t>
+  </si>
+  <si>
+    <t>تخمه</t>
+  </si>
+  <si>
+    <t>بیسکوییت اورئو</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/adams.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/aooche.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/badamzamini.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/bebeto.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/chipssade.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/choobshoor.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/dornaCake.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/hibye.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/kitkat.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/lavashak.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/mars.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/minookeremdar.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/oreo.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/pechpech.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/pofak.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/popcorn.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/saghetalaee.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/shokolatiCake.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/snickers.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NNargesNN/BeheshtiFood/main/Database/tanagholat/tokhme.jpg</t>
   </si>
 </sst>
 </file>
@@ -580,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,130 +1207,280 @@
       <c r="A36" t="s">
         <v>74</v>
       </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>17000</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>6000</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>5000</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <v>12000</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>74</v>
       </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <v>5000</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>74</v>
       </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>74</v>
       </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>6000</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>74</v>
       </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44">
+        <v>13000</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>74</v>
       </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45">
+        <v>4000</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>74</v>
       </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46">
+        <v>15000</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>74</v>
       </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47">
+        <v>4000</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48">
+        <v>20000</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49">
+        <v>4000</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50">
+        <v>6000</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51">
+        <v>5000</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52">
+        <v>5000</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53">
+        <v>3500</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54">
+        <v>16000</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>74</v>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1250,6 +1520,26 @@
     <hyperlink ref="D33" r:id="rId33"/>
     <hyperlink ref="D34" r:id="rId34"/>
     <hyperlink ref="D35" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D36" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
